--- a/cube/data/letter-pair-words.xlsx
+++ b/cube/data/letter-pair-words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j_bou\Documents\github.io\cube\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1330AB58-628A-437E-852A-CA9D6261587F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114731C8-D100-47F7-8602-9D3E0746F581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="3240" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1295,9 +1295,6 @@
     <t>bulle</t>
   </si>
   <si>
-    <t>vil</t>
-  </si>
-  <si>
     <t>wall</t>
   </si>
   <si>
@@ -1755,6 +1752,9 @@
   </si>
   <si>
     <t>wimp</t>
+  </si>
+  <si>
+    <t>ville</t>
   </si>
 </sst>
 </file>
@@ -1969,10 +1969,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2294,8 +2294,8 @@
   </sheetPr>
   <dimension ref="B1:AX51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV51" sqref="AV51"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN40" sqref="AN40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2351,55 +2351,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:50" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="42"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="42"/>
     </row>
     <row r="2" spans="2:50" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:50" x14ac:dyDescent="0.25">
@@ -2413,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>1</v>
@@ -2514,7 +2514,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
@@ -2610,7 +2610,7 @@
         <v>32</v>
       </c>
       <c r="AX4" s="24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="2:50" x14ac:dyDescent="0.25">
@@ -2718,7 +2718,7 @@
         <v>43</v>
       </c>
       <c r="AX5" s="25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="2:50" x14ac:dyDescent="0.25">
@@ -2795,7 +2795,7 @@
         <v>4</v>
       </c>
       <c r="AJ6" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AL6" s="4" t="s">
         <v>16</v>
@@ -2833,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>22</v>
@@ -2872,7 +2872,7 @@
         <v>6</v>
       </c>
       <c r="X7" s="26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>10</v>
@@ -2973,7 +2973,7 @@
         <v>8</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
@@ -3098,7 +3098,7 @@
         <v>10</v>
       </c>
       <c r="AF9" s="26" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AH9" s="4" t="s">
         <v>14</v>
@@ -3154,7 +3154,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>1</v>
@@ -3199,7 +3199,7 @@
         <v>12</v>
       </c>
       <c r="AB10" s="26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AD10" s="4"/>
       <c r="AE10" s="5"/>
@@ -3276,7 +3276,7 @@
         <v>14</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>6</v>
@@ -3550,7 +3550,7 @@
         <v>18</v>
       </c>
       <c r="AV13" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="2:50" x14ac:dyDescent="0.25">
@@ -3561,7 +3561,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>22</v>
@@ -3597,7 +3597,7 @@
         <v>20</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>8</v>
@@ -3651,7 +3651,7 @@
         <v>20</v>
       </c>
       <c r="AR14" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AT14" s="4"/>
       <c r="AU14" s="5"/>
@@ -3885,7 +3885,7 @@
         <v>156</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>22</v>
@@ -4121,7 +4121,7 @@
         <v>181</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>4</v>
@@ -4157,7 +4157,7 @@
         <v>181</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AD19" s="4" t="s">
         <v>12</v>
@@ -4231,7 +4231,7 @@
         <v>192</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>4</v>
@@ -5488,7 +5488,7 @@
         <v>6</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="V32" s="4" t="s">
         <v>192</v>
@@ -6023,7 +6023,7 @@
       <c r="L37" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="N37" s="42" t="s">
+      <c r="N37" s="41" t="s">
         <v>168</v>
       </c>
       <c r="O37" s="21" t="s">
@@ -6304,7 +6304,7 @@
         <v>20</v>
       </c>
       <c r="AN39" s="6" t="s">
-        <v>420</v>
+        <v>573</v>
       </c>
       <c r="AP39" s="4" t="s">
         <v>256</v>
@@ -6313,7 +6313,7 @@
         <v>20</v>
       </c>
       <c r="AR39" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AT39" s="4" t="s">
         <v>269</v>
@@ -6322,7 +6322,7 @@
         <v>20</v>
       </c>
       <c r="AV39" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="2:48" x14ac:dyDescent="0.25">
@@ -6336,7 +6336,7 @@
         <v>130</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>156</v>
@@ -6345,7 +6345,7 @@
         <v>130</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>168</v>
@@ -6354,7 +6354,7 @@
         <v>130</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R40" s="4" t="s">
         <v>181</v>
@@ -6363,7 +6363,7 @@
         <v>130</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="V40" s="4" t="s">
         <v>192</v>
@@ -6372,7 +6372,7 @@
         <v>130</v>
       </c>
       <c r="X40" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Z40" s="4" t="s">
         <v>204</v>
@@ -6381,7 +6381,7 @@
         <v>130</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AD40" s="4" t="s">
         <v>217</v>
@@ -6390,7 +6390,7 @@
         <v>130</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AH40" s="4" t="s">
         <v>230</v>
@@ -6399,7 +6399,7 @@
         <v>130</v>
       </c>
       <c r="AJ40" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AL40" s="4" t="s">
         <v>243</v>
@@ -6408,7 +6408,7 @@
         <v>130</v>
       </c>
       <c r="AN40" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AP40" s="4" t="s">
         <v>256</v>
@@ -6417,7 +6417,7 @@
         <v>130</v>
       </c>
       <c r="AR40" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AT40" s="4" t="s">
         <v>269</v>
@@ -6426,7 +6426,7 @@
         <v>130</v>
       </c>
       <c r="AV40" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="2:48" x14ac:dyDescent="0.25">
@@ -6437,7 +6437,7 @@
         <v>143</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="5"/>
@@ -6449,7 +6449,7 @@
         <v>143</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N41" s="4" t="s">
         <v>168</v>
@@ -6458,7 +6458,7 @@
         <v>143</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R41" s="4" t="s">
         <v>181</v>
@@ -6467,7 +6467,7 @@
         <v>143</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V41" s="4" t="s">
         <v>192</v>
@@ -6476,7 +6476,7 @@
         <v>143</v>
       </c>
       <c r="X41" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Z41" s="4" t="s">
         <v>204</v>
@@ -6485,7 +6485,7 @@
         <v>143</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD41" s="4" t="s">
         <v>217</v>
@@ -6494,7 +6494,7 @@
         <v>143</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AH41" s="4" t="s">
         <v>230</v>
@@ -6503,7 +6503,7 @@
         <v>143</v>
       </c>
       <c r="AJ41" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AL41" s="4" t="s">
         <v>243</v>
@@ -6512,7 +6512,7 @@
         <v>143</v>
       </c>
       <c r="AN41" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AP41" s="4" t="s">
         <v>256</v>
@@ -6521,7 +6521,7 @@
         <v>143</v>
       </c>
       <c r="AR41" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AT41" s="4" t="s">
         <v>269</v>
@@ -6530,7 +6530,7 @@
         <v>143</v>
       </c>
       <c r="AV41" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="2:48" x14ac:dyDescent="0.25">
@@ -6541,7 +6541,7 @@
         <v>156</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>143</v>
@@ -6550,7 +6550,7 @@
         <v>156</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="5"/>
@@ -6562,7 +6562,7 @@
         <v>156</v>
       </c>
       <c r="P42" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="R42" s="4" t="s">
         <v>181</v>
@@ -6571,7 +6571,7 @@
         <v>156</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V42" s="4" t="s">
         <v>192</v>
@@ -6580,7 +6580,7 @@
         <v>156</v>
       </c>
       <c r="X42" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Z42" s="4" t="s">
         <v>204</v>
@@ -6589,7 +6589,7 @@
         <v>156</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AD42" s="4" t="s">
         <v>217</v>
@@ -6598,7 +6598,7 @@
         <v>156</v>
       </c>
       <c r="AF42" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AH42" s="4" t="s">
         <v>230</v>
@@ -6607,7 +6607,7 @@
         <v>156</v>
       </c>
       <c r="AJ42" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AL42" s="4" t="s">
         <v>243</v>
@@ -6616,7 +6616,7 @@
         <v>156</v>
       </c>
       <c r="AN42" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AP42" s="4" t="s">
         <v>256</v>
@@ -6625,7 +6625,7 @@
         <v>156</v>
       </c>
       <c r="AR42" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AT42" s="4" t="s">
         <v>269</v>
@@ -6634,7 +6634,7 @@
         <v>156</v>
       </c>
       <c r="AV42" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="2:48" x14ac:dyDescent="0.25">
@@ -6645,7 +6645,7 @@
         <v>168</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>143</v>
@@ -6654,7 +6654,7 @@
         <v>168</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J43" s="29" t="s">
         <v>156</v>
@@ -6663,7 +6663,7 @@
         <v>168</v>
       </c>
       <c r="L43" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="5"/>
@@ -6684,7 +6684,7 @@
         <v>168</v>
       </c>
       <c r="X43" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Z43" s="4" t="s">
         <v>204</v>
@@ -6693,7 +6693,7 @@
         <v>168</v>
       </c>
       <c r="AB43" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AD43" s="4" t="s">
         <v>217</v>
@@ -6702,7 +6702,7 @@
         <v>168</v>
       </c>
       <c r="AF43" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AH43" s="4" t="s">
         <v>230</v>
@@ -6711,7 +6711,7 @@
         <v>168</v>
       </c>
       <c r="AJ43" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AL43" s="4" t="s">
         <v>243</v>
@@ -6720,7 +6720,7 @@
         <v>168</v>
       </c>
       <c r="AN43" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AP43" s="4" t="s">
         <v>256</v>
@@ -6729,7 +6729,7 @@
         <v>168</v>
       </c>
       <c r="AR43" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AT43" s="4" t="s">
         <v>269</v>
@@ -6738,7 +6738,7 @@
         <v>168</v>
       </c>
       <c r="AV43" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="2:48" x14ac:dyDescent="0.25">
@@ -6749,7 +6749,7 @@
         <v>181</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>143</v>
@@ -6758,7 +6758,7 @@
         <v>181</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>156</v>
@@ -6767,7 +6767,7 @@
         <v>181</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>168</v>
@@ -6776,7 +6776,7 @@
         <v>181</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R44" s="4"/>
       <c r="S44" s="5"/>
@@ -6788,7 +6788,7 @@
         <v>181</v>
       </c>
       <c r="X44" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Z44" s="4" t="s">
         <v>204</v>
@@ -6797,7 +6797,7 @@
         <v>181</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AD44" s="4" t="s">
         <v>217</v>
@@ -6806,7 +6806,7 @@
         <v>181</v>
       </c>
       <c r="AF44" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AH44" s="4" t="s">
         <v>230</v>
@@ -6815,7 +6815,7 @@
         <v>181</v>
       </c>
       <c r="AJ44" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AL44" s="4" t="s">
         <v>243</v>
@@ -6824,7 +6824,7 @@
         <v>181</v>
       </c>
       <c r="AN44" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AP44" s="4" t="s">
         <v>256</v>
@@ -6833,7 +6833,7 @@
         <v>181</v>
       </c>
       <c r="AR44" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AT44" s="4" t="s">
         <v>269</v>
@@ -6842,7 +6842,7 @@
         <v>181</v>
       </c>
       <c r="AV44" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="45" spans="2:48" x14ac:dyDescent="0.25">
@@ -6853,7 +6853,7 @@
         <v>192</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>143</v>
@@ -6862,7 +6862,7 @@
         <v>192</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>156</v>
@@ -6871,7 +6871,7 @@
         <v>192</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>168</v>
@@ -6880,7 +6880,7 @@
         <v>192</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R45" s="29" t="s">
         <v>181</v>
@@ -6889,7 +6889,7 @@
         <v>192</v>
       </c>
       <c r="T45" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="V45" s="4"/>
       <c r="W45" s="5"/>
@@ -6901,7 +6901,7 @@
         <v>192</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AD45" s="4" t="s">
         <v>217</v>
@@ -6910,7 +6910,7 @@
         <v>192</v>
       </c>
       <c r="AF45" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AH45" s="4" t="s">
         <v>230</v>
@@ -6919,7 +6919,7 @@
         <v>192</v>
       </c>
       <c r="AJ45" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AL45" s="4" t="s">
         <v>243</v>
@@ -6928,7 +6928,7 @@
         <v>192</v>
       </c>
       <c r="AN45" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AP45" s="4" t="s">
         <v>256</v>
@@ -6937,7 +6937,7 @@
         <v>192</v>
       </c>
       <c r="AR45" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AT45" s="4" t="s">
         <v>269</v>
@@ -6946,7 +6946,7 @@
         <v>192</v>
       </c>
       <c r="AV45" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="2:48" x14ac:dyDescent="0.25">
@@ -6957,7 +6957,7 @@
         <v>204</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>143</v>
@@ -6966,7 +6966,7 @@
         <v>204</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>156</v>
@@ -6975,7 +6975,7 @@
         <v>204</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N46" s="4" t="s">
         <v>168</v>
@@ -6984,7 +6984,7 @@
         <v>204</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="R46" s="4" t="s">
         <v>181</v>
@@ -6993,7 +6993,7 @@
         <v>204</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="V46" s="4" t="s">
         <v>192</v>
@@ -7002,7 +7002,7 @@
         <v>204</v>
       </c>
       <c r="X46" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Z46" s="4"/>
       <c r="AA46" s="5"/>
@@ -7014,7 +7014,7 @@
         <v>204</v>
       </c>
       <c r="AF46" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AH46" s="4" t="s">
         <v>230</v>
@@ -7023,7 +7023,7 @@
         <v>204</v>
       </c>
       <c r="AJ46" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AL46" s="4" t="s">
         <v>243</v>
@@ -7032,7 +7032,7 @@
         <v>204</v>
       </c>
       <c r="AN46" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AP46" s="4" t="s">
         <v>256</v>
@@ -7041,7 +7041,7 @@
         <v>204</v>
       </c>
       <c r="AR46" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AT46" s="4" t="s">
         <v>269</v>
@@ -7050,7 +7050,7 @@
         <v>204</v>
       </c>
       <c r="AV46" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="47" spans="2:48" x14ac:dyDescent="0.25">
@@ -7061,7 +7061,7 @@
         <v>217</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>143</v>
@@ -7070,7 +7070,7 @@
         <v>217</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>156</v>
@@ -7079,7 +7079,7 @@
         <v>217</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>168</v>
@@ -7088,7 +7088,7 @@
         <v>217</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="R47" s="4" t="s">
         <v>181</v>
@@ -7097,7 +7097,7 @@
         <v>217</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="V47" s="4" t="s">
         <v>192</v>
@@ -7106,7 +7106,7 @@
         <v>217</v>
       </c>
       <c r="X47" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Z47" s="29" t="s">
         <v>204</v>
@@ -7115,7 +7115,7 @@
         <v>217</v>
       </c>
       <c r="AB47" s="26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AD47" s="4"/>
       <c r="AE47" s="5"/>
@@ -7127,7 +7127,7 @@
         <v>217</v>
       </c>
       <c r="AJ47" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AL47" s="4" t="s">
         <v>243</v>
@@ -7136,7 +7136,7 @@
         <v>217</v>
       </c>
       <c r="AN47" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AP47" s="4" t="s">
         <v>256</v>
@@ -7145,7 +7145,7 @@
         <v>217</v>
       </c>
       <c r="AR47" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AT47" s="4" t="s">
         <v>269</v>
@@ -7154,7 +7154,7 @@
         <v>217</v>
       </c>
       <c r="AV47" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="2:48" x14ac:dyDescent="0.25">
@@ -7165,7 +7165,7 @@
         <v>230</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>143</v>
@@ -7174,7 +7174,7 @@
         <v>230</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>156</v>
@@ -7183,7 +7183,7 @@
         <v>230</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N48" s="4" t="s">
         <v>168</v>
@@ -7192,7 +7192,7 @@
         <v>230</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="R48" s="4" t="s">
         <v>181</v>
@@ -7201,7 +7201,7 @@
         <v>230</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V48" s="4" t="s">
         <v>192</v>
@@ -7210,7 +7210,7 @@
         <v>230</v>
       </c>
       <c r="X48" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Z48" s="4" t="s">
         <v>204</v>
@@ -7219,7 +7219,7 @@
         <v>230</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AD48" s="4" t="s">
         <v>217</v>
@@ -7228,7 +7228,7 @@
         <v>230</v>
       </c>
       <c r="AF48" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AH48" s="4"/>
       <c r="AI48" s="5"/>
@@ -7240,7 +7240,7 @@
         <v>230</v>
       </c>
       <c r="AN48" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AP48" s="4" t="s">
         <v>256</v>
@@ -7249,7 +7249,7 @@
         <v>230</v>
       </c>
       <c r="AR48" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AT48" s="4" t="s">
         <v>269</v>
@@ -7258,7 +7258,7 @@
         <v>230</v>
       </c>
       <c r="AV48" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="2:48" x14ac:dyDescent="0.25">
@@ -7269,7 +7269,7 @@
         <v>243</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>143</v>
@@ -7278,7 +7278,7 @@
         <v>243</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>156</v>
@@ -7287,7 +7287,7 @@
         <v>243</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N49" s="4" t="s">
         <v>168</v>
@@ -7296,7 +7296,7 @@
         <v>243</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R49" s="4" t="s">
         <v>181</v>
@@ -7305,7 +7305,7 @@
         <v>243</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="V49" s="4" t="s">
         <v>192</v>
@@ -7314,7 +7314,7 @@
         <v>243</v>
       </c>
       <c r="X49" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Z49" s="4" t="s">
         <v>204</v>
@@ -7323,7 +7323,7 @@
         <v>243</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AD49" s="4" t="s">
         <v>217</v>
@@ -7332,7 +7332,7 @@
         <v>243</v>
       </c>
       <c r="AF49" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AH49" s="4" t="s">
         <v>230</v>
@@ -7341,7 +7341,7 @@
         <v>243</v>
       </c>
       <c r="AJ49" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AL49" s="4"/>
       <c r="AM49" s="5"/>
@@ -7353,7 +7353,7 @@
         <v>243</v>
       </c>
       <c r="AR49" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AT49" s="4" t="s">
         <v>269</v>
@@ -7362,7 +7362,7 @@
         <v>243</v>
       </c>
       <c r="AV49" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="50" spans="2:48" x14ac:dyDescent="0.25">
@@ -7373,7 +7373,7 @@
         <v>256</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>143</v>
@@ -7382,7 +7382,7 @@
         <v>256</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>156</v>
@@ -7391,7 +7391,7 @@
         <v>256</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>168</v>
@@ -7400,7 +7400,7 @@
         <v>256</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="R50" s="4" t="s">
         <v>181</v>
@@ -7409,7 +7409,7 @@
         <v>256</v>
       </c>
       <c r="T50" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="V50" s="4" t="s">
         <v>192</v>
@@ -7418,7 +7418,7 @@
         <v>256</v>
       </c>
       <c r="X50" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="Z50" s="4" t="s">
         <v>204</v>
@@ -7427,7 +7427,7 @@
         <v>256</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AD50" s="4" t="s">
         <v>217</v>
@@ -7436,7 +7436,7 @@
         <v>256</v>
       </c>
       <c r="AF50" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AH50" s="4" t="s">
         <v>230</v>
@@ -7445,7 +7445,7 @@
         <v>256</v>
       </c>
       <c r="AJ50" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AL50" s="4" t="s">
         <v>243</v>
@@ -7454,7 +7454,7 @@
         <v>256</v>
       </c>
       <c r="AN50" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AP50" s="4"/>
       <c r="AQ50" s="5"/>
@@ -7466,7 +7466,7 @@
         <v>256</v>
       </c>
       <c r="AV50" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="51" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7477,7 +7477,7 @@
         <v>269</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>143</v>
@@ -7486,7 +7486,7 @@
         <v>269</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>156</v>
@@ -7495,7 +7495,7 @@
         <v>269</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N51" s="7" t="s">
         <v>168</v>
@@ -7504,7 +7504,7 @@
         <v>269</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="R51" s="7" t="s">
         <v>181</v>
@@ -7513,7 +7513,7 @@
         <v>269</v>
       </c>
       <c r="T51" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V51" s="7" t="s">
         <v>192</v>
@@ -7522,7 +7522,7 @@
         <v>269</v>
       </c>
       <c r="X51" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z51" s="7" t="s">
         <v>204</v>
@@ -7531,7 +7531,7 @@
         <v>269</v>
       </c>
       <c r="AB51" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AD51" s="7" t="s">
         <v>217</v>
@@ -7540,7 +7540,7 @@
         <v>269</v>
       </c>
       <c r="AF51" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AH51" s="7" t="s">
         <v>230</v>
@@ -7549,7 +7549,7 @@
         <v>269</v>
       </c>
       <c r="AJ51" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AL51" s="7" t="s">
         <v>243</v>
@@ -7558,7 +7558,7 @@
         <v>269</v>
       </c>
       <c r="AN51" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AP51" s="39" t="s">
         <v>256</v>
@@ -7567,7 +7567,7 @@
         <v>269</v>
       </c>
       <c r="AR51" s="28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AT51" s="7"/>
       <c r="AU51" s="8"/>

--- a/cube/data/letter-pair-words.xlsx
+++ b/cube/data/letter-pair-words.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j_bou\Documents\github.io\cube\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114731C8-D100-47F7-8602-9D3E0746F581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F060D100-A371-46BB-970F-A0A75E22AF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,9 +536,6 @@
     <t>clos</t>
   </si>
   <si>
-    <t>lot</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -731,9 +728,6 @@
     <t>tau</t>
   </si>
   <si>
-    <t>bu</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
@@ -1118,9 +1112,6 @@
     <t>mug</t>
   </si>
   <si>
-    <t>vogue</t>
-  </si>
-  <si>
     <t>wig</t>
   </si>
   <si>
@@ -1517,9 +1508,6 @@
     <t>pâte</t>
   </si>
   <si>
-    <t>quit</t>
-  </si>
-  <si>
     <t>rite</t>
   </si>
   <si>
@@ -1733,9 +1721,6 @@
     <t>pot</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>rap</t>
   </si>
   <si>
@@ -1755,6 +1740,21 @@
   </si>
   <si>
     <t>ville</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>vague</t>
+  </si>
+  <si>
+    <t>Loh</t>
+  </si>
+  <si>
+    <t>queer</t>
   </si>
 </sst>
 </file>
@@ -2294,8 +2294,8 @@
   </sheetPr>
   <dimension ref="B1:AX51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN40" sqref="AN40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>1</v>
@@ -2514,7 +2514,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
@@ -2610,7 +2610,7 @@
         <v>32</v>
       </c>
       <c r="AX4" s="24" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="2:50" x14ac:dyDescent="0.25">
@@ -2718,7 +2718,7 @@
         <v>43</v>
       </c>
       <c r="AX5" s="25" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="2:50" x14ac:dyDescent="0.25">
@@ -2795,7 +2795,7 @@
         <v>4</v>
       </c>
       <c r="AJ6" s="22" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AL6" s="4" t="s">
         <v>16</v>
@@ -2833,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>22</v>
@@ -2872,7 +2872,7 @@
         <v>6</v>
       </c>
       <c r="X7" s="26" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>10</v>
@@ -2973,7 +2973,7 @@
         <v>8</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
@@ -3098,7 +3098,7 @@
         <v>10</v>
       </c>
       <c r="AF9" s="26" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AH9" s="4" t="s">
         <v>14</v>
@@ -3154,7 +3154,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>1</v>
@@ -3199,7 +3199,7 @@
         <v>12</v>
       </c>
       <c r="AB10" s="26" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AD10" s="4"/>
       <c r="AE10" s="5"/>
@@ -3276,7 +3276,7 @@
         <v>14</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>6</v>
@@ -3550,7 +3550,7 @@
         <v>18</v>
       </c>
       <c r="AV13" s="26" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="2:50" x14ac:dyDescent="0.25">
@@ -3561,7 +3561,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>22</v>
@@ -3597,7 +3597,7 @@
         <v>20</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>8</v>
@@ -3651,7 +3651,7 @@
         <v>20</v>
       </c>
       <c r="AR14" s="26" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AT14" s="4"/>
       <c r="AU14" s="5"/>
@@ -3885,7 +3885,7 @@
         <v>156</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>22</v>
@@ -3975,7 +3975,7 @@
         <v>156</v>
       </c>
       <c r="AR17" s="6" t="s">
-        <v>166</v>
+        <v>441</v>
       </c>
       <c r="AT17" s="4" t="s">
         <v>20</v>
@@ -3984,7 +3984,7 @@
         <v>156</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>167</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="2:48" x14ac:dyDescent="0.25">
@@ -3992,107 +3992,107 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L18" s="22"/>
       <c r="N18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AH18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI18" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL18" s="31" t="s">
         <v>16</v>
       </c>
       <c r="AM18" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN18" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AP18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ18" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AR18" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AT18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU18" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AV18" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="2:48" x14ac:dyDescent="0.25">
@@ -4100,109 +4100,109 @@
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X19" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AD19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AH19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI19" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AL19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AM19" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN19" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AP19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ19" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AR19" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AT19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU19" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AV19" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="2:48" x14ac:dyDescent="0.25">
@@ -4210,109 +4210,109 @@
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Z20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AD20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AH20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AL20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AM20" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AN20" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AP20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ20" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AR20" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AT20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU20" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AV20" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="2:48" x14ac:dyDescent="0.25">
@@ -4320,109 +4320,109 @@
         <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>205</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="V21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AD21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AH21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AM21" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AN21" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AP21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ21" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AR21" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AT21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU21" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AV21" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="2:48" x14ac:dyDescent="0.25">
@@ -4430,109 +4430,109 @@
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J22" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X22" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Z22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AD22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AH22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI22" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AJ22" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AL22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AM22" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN22" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AP22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ22" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AR22" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AT22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU22" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AV22" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="2:48" x14ac:dyDescent="0.25">
@@ -4540,109 +4540,109 @@
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>232</v>
+        <v>570</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="V23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X23" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Z23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AD23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AH23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI23" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AJ23" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AL23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AM23" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AN23" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AP23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ23" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AR23" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AT23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU23" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AV23" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="2:48" x14ac:dyDescent="0.25">
@@ -4650,109 +4650,109 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="J24" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="R24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="V24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="X24" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Z24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AD24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AH24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI24" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AL24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AM24" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AN24" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AP24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ24" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AR24" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU24" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AV24" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="2:48" x14ac:dyDescent="0.25">
@@ -4760,109 +4760,109 @@
         <v>2</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="V25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="X25" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Z25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AD25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AH25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI25" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AL25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AM25" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AN25" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AP25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ25" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AR25" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AT25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU25" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AV25" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4870,61 +4870,61 @@
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>271</v>
       </c>
       <c r="J26" s="37" t="s">
         <v>1</v>
       </c>
       <c r="K26" s="38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N26" s="7" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="R26" s="7" t="s">
         <v>6</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="V26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="W26" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Z26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="AA26" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AB26" s="9" t="s">
         <v>118</v>
@@ -4933,46 +4933,46 @@
         <v>12</v>
       </c>
       <c r="AE26" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AF26" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AH26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="AI26" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ26" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AL26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AM26" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AN26" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AP26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="AQ26" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AR26" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AT26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="AU26" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AV26" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="2:48" s="17" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5009,7 +5009,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>143</v>
@@ -5018,7 +5018,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J28" s="10" t="s">
         <v>156</v>
@@ -5027,90 +5027,90 @@
         <v>2</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M28" s="18"/>
       <c r="N28" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AH28" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI28" s="11" t="s">
         <v>2</v>
       </c>
       <c r="AJ28" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AK28" s="18"/>
       <c r="AL28" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AN28" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AR28" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AV28" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="2:48" x14ac:dyDescent="0.25">
@@ -5121,7 +5121,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>143</v>
@@ -5130,7 +5130,7 @@
         <v>22</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>156</v>
@@ -5139,89 +5139,89 @@
         <v>22</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X29" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Y29" s="19"/>
       <c r="Z29" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AF29" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AH29" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AJ29" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AL29" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AN29" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AP29" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AR29" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AT29" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AV29" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="2:48" x14ac:dyDescent="0.25">
@@ -5232,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>143</v>
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J30" s="31" t="s">
         <v>156</v>
@@ -5250,88 +5250,88 @@
         <v>1</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N30" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="P30" s="22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="R30" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="T30" s="22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="V30" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="X30" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Z30" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="AB30" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AD30" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="AF30" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AH30" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="AJ30" s="22" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AL30" s="31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="AN30" s="22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AP30" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="AR30" s="22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AT30" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="AV30" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="2:48" x14ac:dyDescent="0.25">
@@ -5342,7 +5342,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>143</v>
@@ -5351,7 +5351,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>156</v>
@@ -5360,88 +5360,88 @@
         <v>4</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="X31" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="AF31" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AH31" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="AJ31" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AL31" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="AN31" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AP31" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="AR31" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AT31" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="AV31" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="2:48" x14ac:dyDescent="0.25">
@@ -5452,7 +5452,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>143</v>
@@ -5461,7 +5461,7 @@
         <v>6</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>156</v>
@@ -5470,88 +5470,88 @@
         <v>6</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="X32" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AD32" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AH32" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AJ32" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AL32" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AN32" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AP32" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AR32" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AT32" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AV32" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="2:48" x14ac:dyDescent="0.25">
@@ -5562,7 +5562,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>143</v>
@@ -5571,7 +5571,7 @@
         <v>8</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>156</v>
@@ -5580,88 +5580,88 @@
         <v>8</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X33" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AD33" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AH33" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AJ33" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AL33" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AN33" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AP33" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AR33" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AT33" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AV33" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="2:48" x14ac:dyDescent="0.25">
@@ -5672,7 +5672,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>143</v>
@@ -5681,7 +5681,7 @@
         <v>10</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>156</v>
@@ -5690,88 +5690,88 @@
         <v>10</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="X34" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Z34" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AD34" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AF34" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AH34" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AJ34" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AL34" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AN34" s="6" t="s">
-        <v>361</v>
+        <v>571</v>
       </c>
       <c r="AP34" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AR34" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AT34" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AV34" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="2:48" x14ac:dyDescent="0.25">
@@ -5782,7 +5782,7 @@
         <v>12</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>143</v>
@@ -5791,7 +5791,7 @@
         <v>12</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>156</v>
@@ -5800,89 +5800,89 @@
         <v>12</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="X35" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AD35" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AH35" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AJ35" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AL35" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM35" s="15" t="s">
         <v>12</v>
       </c>
       <c r="AN35" s="16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AO35" s="18"/>
       <c r="AP35" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AR35" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AT35" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU35" s="15" t="s">
         <v>12</v>
       </c>
       <c r="AV35" s="16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="2:48" x14ac:dyDescent="0.25">
@@ -5893,7 +5893,7 @@
         <v>14</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>143</v>
@@ -5902,7 +5902,7 @@
         <v>14</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>156</v>
@@ -5911,88 +5911,88 @@
         <v>14</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="T36" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="X36" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AD36" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AF36" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AH36" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AJ36" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AL36" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AN36" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AP36" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AR36" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AT36" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AV36" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="2:48" x14ac:dyDescent="0.25">
@@ -6003,7 +6003,7 @@
         <v>16</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>143</v>
@@ -6012,7 +6012,7 @@
         <v>16</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>156</v>
@@ -6021,88 +6021,88 @@
         <v>16</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N37" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O37" s="21" t="s">
         <v>16</v>
       </c>
       <c r="P37" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="X37" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Z37" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AD37" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AH37" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AJ37" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AL37" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AN37" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AP37" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AR37" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AT37" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AV37" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="2:48" x14ac:dyDescent="0.25">
@@ -6113,7 +6113,7 @@
         <v>18</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>143</v>
@@ -6122,7 +6122,7 @@
         <v>18</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>156</v>
@@ -6131,88 +6131,88 @@
         <v>18</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="T38" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="X38" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Z38" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AD38" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AH38" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AJ38" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AL38" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AN38" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AP38" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AR38" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AT38" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AV38" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="2:48" x14ac:dyDescent="0.25">
@@ -6223,7 +6223,7 @@
         <v>20</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>143</v>
@@ -6232,7 +6232,7 @@
         <v>20</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>156</v>
@@ -6241,88 +6241,88 @@
         <v>20</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="X39" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AJ39" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AN39" s="6" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AP39" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AR39" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AT39" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AV39" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="2:48" x14ac:dyDescent="0.25">
@@ -6336,7 +6336,7 @@
         <v>130</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>156</v>
@@ -6345,88 +6345,88 @@
         <v>130</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="X40" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AJ40" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AN40" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AP40" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AR40" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AT40" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AV40" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="2:48" x14ac:dyDescent="0.25">
@@ -6437,7 +6437,7 @@
         <v>143</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="5"/>
@@ -6449,88 +6449,88 @@
         <v>143</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="X41" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="AJ41" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="AN41" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AP41" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="AR41" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AT41" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="AV41" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42" spans="2:48" x14ac:dyDescent="0.25">
@@ -6541,7 +6541,7 @@
         <v>156</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>143</v>
@@ -6550,91 +6550,91 @@
         <v>156</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="5"/>
       <c r="L42" s="6"/>
       <c r="N42" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O42" s="30" t="s">
         <v>156</v>
       </c>
       <c r="P42" s="26" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S42" s="5" t="s">
         <v>156</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>444</v>
+        <v>166</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W42" s="5" t="s">
         <v>156</v>
       </c>
       <c r="X42" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Z42" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA42" s="5" t="s">
         <v>156</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AD42" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE42" s="5" t="s">
         <v>156</v>
       </c>
       <c r="AF42" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AH42" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI42" s="5" t="s">
         <v>156</v>
       </c>
       <c r="AJ42" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AL42" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM42" s="5" t="s">
         <v>156</v>
       </c>
       <c r="AN42" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AP42" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ42" s="5" t="s">
         <v>156</v>
       </c>
       <c r="AR42" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AT42" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU42" s="5" t="s">
         <v>156</v>
       </c>
       <c r="AV42" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="2:48" x14ac:dyDescent="0.25">
@@ -6642,103 +6642,103 @@
         <v>130</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J43" s="29" t="s">
         <v>156</v>
       </c>
       <c r="K43" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L43" s="26" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="5"/>
       <c r="P43" s="6"/>
       <c r="R43" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S43" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T43" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V43" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W43" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X43" s="26" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="Z43" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA43" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB43" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD43" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE43" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF43" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AH43" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI43" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ43" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AL43" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM43" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN43" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="AD43" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE43" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF43" s="6" t="s">
+      <c r="AP43" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AQ43" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR43" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="AH43" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI43" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AJ43" s="6" t="s">
+      <c r="AT43" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU43" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV43" s="6" t="s">
         <v>456</v>
-      </c>
-      <c r="AL43" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="AM43" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN43" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="AP43" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="AQ43" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AR43" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="AT43" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AU43" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AV43" s="6" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="44" spans="2:48" x14ac:dyDescent="0.25">
@@ -6746,103 +6746,103 @@
         <v>130</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>156</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="R44" s="4"/>
       <c r="S44" s="5"/>
       <c r="T44" s="6"/>
       <c r="V44" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W44" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X44" s="26" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="Z44" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA44" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB44" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD44" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE44" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF44" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AH44" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI44" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ44" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="AL44" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM44" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN44" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="AD44" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE44" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF44" s="6" t="s">
+      <c r="AP44" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AQ44" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR44" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="AH44" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI44" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ44" s="6" t="s">
+      <c r="AT44" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU44" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AV44" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="AL44" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="AM44" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN44" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="AP44" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="AQ44" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR44" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="AT44" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AU44" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV44" s="6" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="45" spans="2:48" x14ac:dyDescent="0.25">
@@ -6850,103 +6850,103 @@
         <v>130</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>156</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="R45" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S45" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T45" s="26" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="V45" s="4"/>
       <c r="W45" s="5"/>
       <c r="X45" s="6"/>
       <c r="Z45" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA45" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB45" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD45" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF45" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AH45" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ45" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AL45" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN45" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="AD45" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE45" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF45" s="6" t="s">
+      <c r="AP45" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AQ45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR45" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AH45" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI45" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AJ45" s="6" t="s">
+      <c r="AT45" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AV45" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="AL45" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="AM45" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN45" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="AP45" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="AQ45" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AR45" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="AT45" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AU45" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AV45" s="6" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="46" spans="2:48" x14ac:dyDescent="0.25">
@@ -6954,103 +6954,103 @@
         <v>130</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>156</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L46" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="X46" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="R46" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="S46" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="T46" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="V46" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="W46" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="X46" s="6" t="s">
-        <v>485</v>
       </c>
       <c r="Z46" s="4"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="6"/>
       <c r="AD46" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE46" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF46" s="26" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="AH46" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI46" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AJ46" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="AL46" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM46" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN46" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="AP46" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AQ46" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR46" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="AT46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU46" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV46" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="AL46" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="AM46" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN46" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="AP46" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="AQ46" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AR46" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="AT46" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AU46" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AV46" s="6" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="47" spans="2:48" x14ac:dyDescent="0.25">
@@ -7058,103 +7058,103 @@
         <v>130</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>156</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="V47" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="X47" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="Z47" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA47" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB47" s="26" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="AD47" s="4"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="6"/>
       <c r="AH47" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI47" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AJ47" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AL47" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM47" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN47" s="6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AP47" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ47" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AR47" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="AT47" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU47" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AV47" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="2:48" x14ac:dyDescent="0.25">
@@ -7162,103 +7162,103 @@
         <v>130</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>156</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L48" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="T48" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="X48" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="Z48" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA48" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB48" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="AD48" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE48" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF48" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="R48" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="S48" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="T48" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="V48" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="W48" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="X48" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z48" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA48" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB48" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="AD48" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE48" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF48" s="6" t="s">
-        <v>506</v>
       </c>
       <c r="AH48" s="4"/>
       <c r="AI48" s="5"/>
       <c r="AJ48" s="6"/>
       <c r="AL48" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AM48" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AN48" s="6" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AP48" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ48" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AR48" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AT48" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU48" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AV48" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="49" spans="2:48" x14ac:dyDescent="0.25">
@@ -7266,103 +7266,103 @@
         <v>130</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>156</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L49" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="X49" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z49" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA49" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB49" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="N49" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="O49" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="P49" s="6" t="s">
+      <c r="AD49" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE49" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF49" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="R49" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="T49" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="V49" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="W49" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="X49" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="Z49" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA49" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB49" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="AD49" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE49" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF49" s="6" t="s">
-        <v>516</v>
-      </c>
       <c r="AH49" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AI49" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AJ49" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AL49" s="4"/>
       <c r="AM49" s="5"/>
       <c r="AN49" s="6"/>
       <c r="AP49" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ49" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AR49" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AT49" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU49" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AV49" s="6" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="50" spans="2:48" x14ac:dyDescent="0.25">
@@ -7370,103 +7370,103 @@
         <v>130</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>156</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L50" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="X50" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA50" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB50" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="N50" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="P50" s="6" t="s">
+      <c r="AD50" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE50" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF50" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="R50" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="S50" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="T50" s="6" t="s">
+      <c r="AH50" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI50" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ50" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="V50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="W50" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="X50" s="6" t="s">
+      <c r="AL50" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM50" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AN50" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="Z50" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA50" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB50" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="AD50" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE50" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF50" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="AH50" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI50" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="AJ50" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="AL50" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="AM50" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="AN50" s="6" t="s">
-        <v>529</v>
       </c>
       <c r="AP50" s="4"/>
       <c r="AQ50" s="5"/>
       <c r="AR50" s="6"/>
       <c r="AT50" s="29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AU50" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AV50" s="26" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="51" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7474,100 +7474,100 @@
         <v>130</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>143</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>156</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L51" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="S51" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="T51" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="V51" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="W51" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="X51" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z51" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA51" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB51" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="N51" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="P51" s="9" t="s">
+      <c r="AD51" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE51" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF51" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="R51" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="S51" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="T51" s="9" t="s">
+      <c r="AH51" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI51" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ51" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="V51" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="W51" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="X51" s="9" t="s">
+      <c r="AL51" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM51" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN51" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="Z51" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA51" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB51" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="AD51" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE51" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF51" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="AH51" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="AI51" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="AJ51" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="AL51" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="AM51" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="AN51" s="9" t="s">
-        <v>539</v>
-      </c>
       <c r="AP51" s="39" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AQ51" s="40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AR51" s="28" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="AT51" s="7"/>
       <c r="AU51" s="8"/>

--- a/cube/data/letter-pair-words.xlsx
+++ b/cube/data/letter-pair-words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j_bou\Documents\github.io\cube\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F060D100-A371-46BB-970F-A0A75E22AF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CAED6C-2E9F-48B2-83AA-FBD08E4FDA00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,9 +494,6 @@
     <t>in</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
     <t>knight</t>
   </si>
   <si>
@@ -929,9 +926,6 @@
     <t>Seb</t>
   </si>
   <si>
-    <t>tube</t>
-  </si>
-  <si>
     <t>sub</t>
   </si>
   <si>
@@ -965,9 +959,6 @@
     <t>sauce</t>
   </si>
   <si>
-    <t>TICE</t>
-  </si>
-  <si>
     <t>Luc</t>
   </si>
   <si>
@@ -980,9 +971,6 @@
     <t>cunt</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>nude</t>
   </si>
   <si>
@@ -1307,9 +1295,6 @@
     <t>Sam</t>
   </si>
   <si>
-    <t>tam</t>
-  </si>
-  <si>
     <t>Ulm</t>
   </si>
   <si>
@@ -1325,9 +1310,6 @@
     <t>on</t>
   </si>
   <si>
-    <t>Pan</t>
-  </si>
-  <si>
     <t>qu'un</t>
   </si>
   <si>
@@ -1577,9 +1559,6 @@
     <t>vu</t>
   </si>
   <si>
-    <t>weave</t>
-  </si>
-  <si>
     <t>veal</t>
   </si>
   <si>
@@ -1755,6 +1734,27 @@
   </si>
   <si>
     <t>queer</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>tuc</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
+    <t>mad</t>
   </si>
 </sst>
 </file>
@@ -2294,8 +2294,8 @@
   </sheetPr>
   <dimension ref="B1:AX51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,7 +2413,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>1</v>
@@ -2514,7 +2514,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
@@ -2610,7 +2610,7 @@
         <v>32</v>
       </c>
       <c r="AX4" s="24" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="2:50" x14ac:dyDescent="0.25">
@@ -2718,7 +2718,7 @@
         <v>43</v>
       </c>
       <c r="AX5" s="25" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="2:50" x14ac:dyDescent="0.25">
@@ -2795,7 +2795,7 @@
         <v>4</v>
       </c>
       <c r="AJ6" s="22" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="AL6" s="4" t="s">
         <v>16</v>
@@ -2833,7 +2833,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>22</v>
@@ -2872,7 +2872,7 @@
         <v>6</v>
       </c>
       <c r="X7" s="26" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>10</v>
@@ -2973,7 +2973,7 @@
         <v>8</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="5"/>
@@ -3098,7 +3098,7 @@
         <v>10</v>
       </c>
       <c r="AF9" s="26" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AH9" s="4" t="s">
         <v>14</v>
@@ -3154,7 +3154,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>1</v>
@@ -3199,7 +3199,7 @@
         <v>12</v>
       </c>
       <c r="AB10" s="26" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AD10" s="4"/>
       <c r="AE10" s="5"/>
@@ -3276,7 +3276,7 @@
         <v>14</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>6</v>
@@ -3550,7 +3550,7 @@
         <v>18</v>
       </c>
       <c r="AV13" s="26" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="2:50" x14ac:dyDescent="0.25">
@@ -3561,7 +3561,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>22</v>
@@ -3597,7 +3597,7 @@
         <v>20</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>8</v>
@@ -3651,7 +3651,7 @@
         <v>20</v>
       </c>
       <c r="AR14" s="26" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AT14" s="4"/>
       <c r="AU14" s="5"/>
@@ -3856,7 +3856,7 @@
         <v>143</v>
       </c>
       <c r="AN16" s="6" t="s">
-        <v>153</v>
+        <v>569</v>
       </c>
       <c r="AP16" s="4" t="s">
         <v>18</v>
@@ -3865,7 +3865,7 @@
         <v>143</v>
       </c>
       <c r="AR16" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT16" s="4" t="s">
         <v>20</v>
@@ -3874,7 +3874,7 @@
         <v>143</v>
       </c>
       <c r="AV16" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="2:48" x14ac:dyDescent="0.25">
@@ -3882,109 +3882,109 @@
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="J17" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF17" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AH17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AJ17" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AM17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN17" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AP17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AR17" s="6" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AT17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AV17" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="2:48" x14ac:dyDescent="0.25">
@@ -3992,107 +3992,107 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L18" s="22"/>
       <c r="N18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF18" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AH18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI18" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL18" s="31" t="s">
         <v>16</v>
       </c>
       <c r="AM18" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AN18" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AP18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ18" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AR18" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AT18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU18" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AV18" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="2:48" x14ac:dyDescent="0.25">
@@ -4100,109 +4100,109 @@
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X19" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="AD19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF19" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AH19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI19" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AM19" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AN19" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AP19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ19" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AR19" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AT19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU19" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AV19" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="2:48" x14ac:dyDescent="0.25">
@@ -4210,109 +4210,109 @@
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AD20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF20" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ20" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AM20" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN20" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AP20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ20" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AR20" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU20" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AV20" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="2:48" x14ac:dyDescent="0.25">
@@ -4320,109 +4320,109 @@
         <v>2</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>204</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J21" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AD21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AH21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AM21" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN21" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ21" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AR21" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AT21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU21" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AV21" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="2:48" x14ac:dyDescent="0.25">
@@ -4430,109 +4430,109 @@
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J22" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X22" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AD22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF22" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AH22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI22" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ22" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AL22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AM22" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AN22" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AP22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ22" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AR22" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AT22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU22" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AV22" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="2:48" x14ac:dyDescent="0.25">
@@ -4540,109 +4540,109 @@
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="J23" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X23" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Z23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AD23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF23" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AH23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI23" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AJ23" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AL23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AM23" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN23" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AP23" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ23" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AR23" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AT23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU23" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AV23" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="2:48" x14ac:dyDescent="0.25">
@@ -4650,109 +4650,109 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J24" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="X24" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Z24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AD24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF24" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AH24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI24" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL24" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AM24" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AN24" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AP24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ24" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AR24" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AT24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU24" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AV24" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="2:48" x14ac:dyDescent="0.25">
@@ -4760,109 +4760,109 @@
         <v>2</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>1</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>4</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="X25" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Z25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AD25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF25" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AH25" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AI25" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL25" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AM25" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AN25" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AP25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AQ25" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AR25" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AT25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AU25" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AV25" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4870,61 +4870,61 @@
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J26" s="37" t="s">
         <v>1</v>
       </c>
       <c r="K26" s="38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N26" s="7" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R26" s="7" t="s">
         <v>6</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V26" s="7" t="s">
         <v>8</v>
       </c>
       <c r="W26" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="AA26" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB26" s="9" t="s">
         <v>118</v>
@@ -4933,46 +4933,46 @@
         <v>12</v>
       </c>
       <c r="AE26" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF26" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="AI26" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ26" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AL26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="AM26" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AN26" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AP26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="AQ26" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AR26" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AT26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="AU26" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AV26" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="2:48" s="17" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5009,7 +5009,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>143</v>
@@ -5018,99 +5018,99 @@
         <v>2</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K28" s="11" t="s">
         <v>2</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M28" s="18"/>
       <c r="N28" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AH28" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI28" s="11" t="s">
         <v>2</v>
       </c>
       <c r="AJ28" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AK28" s="18"/>
       <c r="AL28" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AN28" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AP28" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AR28" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="AV28" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="2:48" x14ac:dyDescent="0.25">
@@ -5121,7 +5121,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>143</v>
@@ -5130,98 +5130,98 @@
         <v>22</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X29" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y29" s="19"/>
       <c r="Z29" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AF29" s="6" t="s">
-        <v>298</v>
+        <v>570</v>
       </c>
       <c r="AH29" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AJ29" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AL29" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AN29" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AP29" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AR29" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AT29" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AV29" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="2:48" x14ac:dyDescent="0.25">
@@ -5232,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>143</v>
@@ -5241,97 +5241,97 @@
         <v>1</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N30" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="P30" s="22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="R30" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="T30" s="22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="V30" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="X30" s="22" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Z30" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="AB30" s="22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AD30" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="AF30" s="22" t="s">
-        <v>310</v>
+        <v>571</v>
       </c>
       <c r="AH30" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="AJ30" s="22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AL30" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="AN30" s="22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AP30" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="AR30" s="22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AT30" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU30" s="32" t="s">
         <v>1</v>
       </c>
       <c r="AV30" s="22" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="2:48" x14ac:dyDescent="0.25">
@@ -5342,7 +5342,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>315</v>
+        <v>573</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>143</v>
@@ -5351,97 +5351,97 @@
         <v>4</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="X31" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="AF31" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AH31" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="AJ31" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL31" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="AN31" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AP31" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="AR31" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AT31" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="AV31" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="2:48" x14ac:dyDescent="0.25">
@@ -5452,7 +5452,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>143</v>
@@ -5461,97 +5461,97 @@
         <v>6</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="X32" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AD32" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AF32" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AH32" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AJ32" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AL32" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AN32" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AP32" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AR32" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AT32" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AV32" s="6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="2:48" x14ac:dyDescent="0.25">
@@ -5562,7 +5562,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>143</v>
@@ -5571,97 +5571,97 @@
         <v>8</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="X33" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Z33" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AD33" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AH33" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AJ33" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AL33" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AN33" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AP33" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AR33" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AT33" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="AV33" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="2:48" x14ac:dyDescent="0.25">
@@ -5672,7 +5672,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>143</v>
@@ -5681,97 +5681,97 @@
         <v>10</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="X34" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Z34" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AD34" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AF34" s="6" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AH34" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AJ34" s="6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AL34" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AN34" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="AP34" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AR34" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AT34" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="AV34" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="2:48" x14ac:dyDescent="0.25">
@@ -5782,7 +5782,7 @@
         <v>12</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>143</v>
@@ -5791,98 +5791,98 @@
         <v>12</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="V35" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="X35" s="6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AD35" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AF35" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AH35" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AJ35" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AL35" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM35" s="15" t="s">
         <v>12</v>
       </c>
       <c r="AN35" s="16" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AO35" s="18"/>
       <c r="AP35" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="AR35" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AT35" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU35" s="15" t="s">
         <v>12</v>
       </c>
       <c r="AV35" s="16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="2:48" x14ac:dyDescent="0.25">
@@ -5893,7 +5893,7 @@
         <v>14</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>143</v>
@@ -5902,97 +5902,97 @@
         <v>14</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="T36" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="V36" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="X36" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AD36" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AF36" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AH36" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AJ36" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AL36" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AN36" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AP36" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AR36" s="6" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AT36" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AV36" s="6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="2:48" x14ac:dyDescent="0.25">
@@ -6003,7 +6003,7 @@
         <v>16</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>143</v>
@@ -6012,97 +6012,97 @@
         <v>16</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N37" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O37" s="21" t="s">
         <v>16</v>
       </c>
       <c r="P37" s="22" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="X37" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Z37" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AD37" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AF37" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AH37" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AJ37" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AL37" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AN37" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AP37" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AR37" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AT37" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AV37" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="2:48" x14ac:dyDescent="0.25">
@@ -6113,7 +6113,7 @@
         <v>18</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>143</v>
@@ -6122,97 +6122,97 @@
         <v>18</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="T38" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="V38" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="X38" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Z38" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AD38" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AF38" s="6" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AH38" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AJ38" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AL38" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AN38" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AP38" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AR38" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AT38" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="AV38" s="6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="2:48" x14ac:dyDescent="0.25">
@@ -6223,7 +6223,7 @@
         <v>20</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>143</v>
@@ -6232,97 +6232,97 @@
         <v>20</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="X39" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AF39" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AJ39" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AN39" s="6" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="AP39" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AR39" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AT39" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU39" s="5" t="s">
         <v>20</v>
       </c>
       <c r="AV39" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="2:48" x14ac:dyDescent="0.25">
@@ -6336,97 +6336,97 @@
         <v>130</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="X40" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>424</v>
+        <v>567</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AJ40" s="6" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AN40" s="6" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AP40" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AR40" s="6" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AT40" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU40" s="5" t="s">
         <v>130</v>
       </c>
       <c r="AV40" s="6" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" spans="2:48" x14ac:dyDescent="0.25">
@@ -6437,100 +6437,100 @@
         <v>143</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="5"/>
       <c r="H41" s="6"/>
       <c r="J41" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>430</v>
+        <v>568</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="X41" s="6" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="AF41" s="6" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="AJ41" s="6" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="AN41" s="6" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AP41" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="AR41" s="6" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="AT41" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU41" s="5" t="s">
         <v>143</v>
       </c>
       <c r="AV41" s="6" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="2:48" x14ac:dyDescent="0.25">
@@ -6538,103 +6538,103 @@
         <v>130</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="5"/>
       <c r="L42" s="6"/>
       <c r="N42" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O42" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P42" s="26" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V42" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W42" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X42" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z42" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA42" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB42" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD42" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE42" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF42" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="AH42" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI42" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ42" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL42" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM42" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN42" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AP42" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ42" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR42" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AT42" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AU42" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AV42" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="Z42" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA42" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB42" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="AD42" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE42" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF42" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="AH42" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI42" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ42" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="AL42" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM42" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN42" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="AP42" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="AQ42" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR42" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="AT42" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="AU42" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AV42" s="6" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="43" spans="2:48" x14ac:dyDescent="0.25">
@@ -6642,103 +6642,103 @@
         <v>130</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="J43" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K43" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L43" s="26" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="5"/>
       <c r="P43" s="6"/>
       <c r="R43" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S43" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T43" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V43" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W43" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X43" s="26" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="Z43" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA43" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB43" s="6" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AD43" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE43" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF43" s="6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AH43" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI43" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AJ43" s="6" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AL43" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM43" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AN43" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AP43" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ43" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AR43" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AT43" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU43" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AV43" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="2:48" x14ac:dyDescent="0.25">
@@ -6746,103 +6746,103 @@
         <v>130</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="R44" s="4"/>
       <c r="S44" s="5"/>
       <c r="T44" s="6"/>
       <c r="V44" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W44" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X44" s="26" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="Z44" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA44" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="AD44" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE44" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF44" s="6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AH44" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI44" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AJ44" s="6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AL44" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM44" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AN44" s="6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AP44" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ44" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AR44" s="6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="AT44" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU44" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AV44" s="6" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="2:48" x14ac:dyDescent="0.25">
@@ -6850,103 +6850,103 @@
         <v>130</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="R45" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S45" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T45" s="26" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="V45" s="4"/>
       <c r="W45" s="5"/>
       <c r="X45" s="6"/>
       <c r="Z45" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA45" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="AD45" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE45" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF45" s="6" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AH45" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI45" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ45" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AL45" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM45" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN45" s="6" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AP45" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ45" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AR45" s="6" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AT45" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU45" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AV45" s="6" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="46" spans="2:48" x14ac:dyDescent="0.25">
@@ -6954,103 +6954,103 @@
         <v>130</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S46" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="V46" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W46" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X46" s="6" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="Z46" s="4"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="6"/>
       <c r="AD46" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE46" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF46" s="26" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AH46" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI46" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ46" s="6" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="AL46" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM46" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN46" s="6" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AP46" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ46" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AR46" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="AT46" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU46" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AV46" s="6" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="2:48" x14ac:dyDescent="0.25">
@@ -7058,103 +7058,103 @@
         <v>130</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="V47" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X47" s="6" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="Z47" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA47" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB47" s="26" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="AD47" s="4"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="6"/>
       <c r="AH47" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI47" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ47" s="6" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AL47" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM47" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AN47" s="6" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="AP47" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ47" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AR47" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AT47" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU47" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AV47" s="6" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="48" spans="2:48" x14ac:dyDescent="0.25">
@@ -7162,103 +7162,103 @@
         <v>130</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="V48" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X48" s="6" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="Z48" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA48" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="AD48" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AE48" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF48" s="6" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="AH48" s="4"/>
       <c r="AI48" s="5"/>
       <c r="AJ48" s="6"/>
       <c r="AL48" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM48" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AN48" s="6" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="AP48" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ48" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AR48" s="6" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="AT48" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU48" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AV48" s="6" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="49" spans="2:48" x14ac:dyDescent="0.25">
@@ -7266,103 +7266,103 @@
         <v>130</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H49" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="T49" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="X49" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z49" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA49" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB49" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="AD49" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE49" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF49" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="O49" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="P49" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="R49" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="S49" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="T49" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="V49" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="W49" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="X49" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="Z49" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA49" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB49" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="AD49" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE49" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF49" s="6" t="s">
-        <v>512</v>
-      </c>
       <c r="AH49" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AI49" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ49" s="6" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AL49" s="4"/>
       <c r="AM49" s="5"/>
       <c r="AN49" s="6"/>
       <c r="AP49" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ49" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AR49" s="6" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="AT49" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU49" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AV49" s="6" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="50" spans="2:48" x14ac:dyDescent="0.25">
@@ -7370,103 +7370,103 @@
         <v>130</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>143</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H50" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="X50" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z50" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA50" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB50" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="AD50" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE50" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF50" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="AH50" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI50" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ50" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="L50" s="6" t="s">
+      <c r="AL50" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM50" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN50" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="P50" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="R50" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="S50" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="T50" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="V50" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="W50" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="X50" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="Z50" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA50" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB50" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="AD50" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE50" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AF50" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="AH50" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI50" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ50" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="AL50" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM50" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AN50" s="6" t="s">
-        <v>525</v>
       </c>
       <c r="AP50" s="4"/>
       <c r="AQ50" s="5"/>
       <c r="AR50" s="6"/>
       <c r="AT50" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AU50" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AV50" s="26" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="51" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7474,100 +7474,100 @@
         <v>130</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>143</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H51" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="P51" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="S51" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="T51" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="V51" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="W51" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="X51" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z51" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA51" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB51" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="AD51" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE51" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF51" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="AH51" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI51" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ51" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="J51" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="L51" s="9" t="s">
+      <c r="AL51" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM51" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN51" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="N51" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="P51" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="R51" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="S51" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="T51" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="V51" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="W51" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="X51" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="Z51" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA51" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB51" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="AD51" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE51" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="AF51" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="AH51" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI51" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ51" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="AL51" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="AM51" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="AN51" s="9" t="s">
-        <v>535</v>
-      </c>
       <c r="AP51" s="39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ51" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AR51" s="28" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="AT51" s="7"/>
       <c r="AU51" s="8"/>

--- a/cube/data/letter-pair-words.xlsx
+++ b/cube/data/letter-pair-words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j_bou\Documents\github.io\cube\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CAED6C-2E9F-48B2-83AA-FBD08E4FDA00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910EED2E-BBE3-4EC6-BCD1-0F1082FD5E19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="575">
   <si>
     <t>Letter Pair Words</t>
   </si>
@@ -1755,6 +1755,9 @@
   </si>
   <si>
     <t>mad</t>
+  </si>
+  <si>
+    <t>gleek</t>
   </si>
 </sst>
 </file>
@@ -2294,8 +2297,8 @@
   </sheetPr>
   <dimension ref="B1:AX51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,7 +3514,7 @@
         <v>18</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>118</v>
+        <v>574</v>
       </c>
       <c r="AD13" s="4" t="s">
         <v>12</v>
